--- a/cirRNA/cirRNAInfo/static/table/Cancer_info.xlsx
+++ b/cirRNA/cirRNAInfo/static/table/Cancer_info.xlsx
@@ -1,37 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52B9EB3-DF4A-44EC-96D8-C94FA0D5C3D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Cancer_info" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Cancer_info!$A$1:$A$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$45</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="184">
   <si>
     <t>disease</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gastric cancer</t>
   </si>
   <si>
     <t>hypopharyngeal squamous cell carcinoma</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>papillary thyroid carcinoma</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>radioresistant esophageal cancer cells</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -41,10 +39,6 @@
   </si>
   <si>
     <t>Primary hepatic carcinoma</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pancreatic cancer</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -148,6 +142,10 @@
   </si>
   <si>
     <t>is_a liver carcinoma</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">colorectal cancer </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1190,6 +1188,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>Pancreatic cancer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">cutaneous squamous cell carcinoma </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Esophageal squamous cell carcinoma</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1198,6 +1204,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>papillary thyroid carcinoma</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>Prostate cancer</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1206,22 +1216,22 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>colorectal cancer</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cutaneous squamous cell carcinoma</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gastric cancer</t>
+    <t>N/A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1270,32 +1280,25 @@
       <family val="1"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color rgb="FF222244"/>
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1307,11 +1310,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1319,7 +1321,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1334,10 +1336,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1349,16 +1348,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1449,23 +1456,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1501,23 +1491,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1693,48 +1666,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="58.26953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="4"/>
-    <col min="3" max="3" width="82.453125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="41" style="6" customWidth="1"/>
-    <col min="5" max="5" width="16.453125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="34.08984375" style="6" customWidth="1"/>
-    <col min="7" max="7" width="30.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="58.25" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="14"/>
+    <col min="3" max="3" width="82.5" style="16" customWidth="1"/>
+    <col min="4" max="4" width="41" style="14" customWidth="1"/>
+    <col min="5" max="5" width="16.5" style="14" customWidth="1"/>
+    <col min="6" max="6" width="34.125" style="14" customWidth="1"/>
+    <col min="7" max="7" width="30.5" style="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="E1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="196" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" ht="189" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>107</v>
       </c>
@@ -1757,12 +1730,30 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="11" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="294" x14ac:dyDescent="0.25">
+      <c r="B3" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="283.5" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>113</v>
       </c>
@@ -1785,8 +1776,8 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="70" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="11" t="s">
         <v>54</v>
       </c>
       <c r="B5" s="4">
@@ -1799,7 +1790,7 @@
         <v>35</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>36</v>
@@ -1808,8 +1799,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="70" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="11" t="s">
         <v>55</v>
       </c>
       <c r="B6" s="4">
@@ -1822,7 +1813,7 @@
         <v>35</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>36</v>
@@ -1831,8 +1822,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="112" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+    <row r="7" spans="1:7" ht="108" x14ac:dyDescent="0.15">
+      <c r="A7" s="10" t="s">
         <v>158</v>
       </c>
       <c r="B7" s="4">
@@ -1854,8 +1845,8 @@
         <v>163</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="364" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:7" ht="351" x14ac:dyDescent="0.15">
+      <c r="A8" s="11" t="s">
         <v>81</v>
       </c>
       <c r="B8" s="4">
@@ -1877,8 +1868,8 @@
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="126" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+    <row r="9" spans="1:7" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="11" t="s">
         <v>65</v>
       </c>
       <c r="B9" s="4">
@@ -1900,7 +1891,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="182" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>76</v>
       </c>
@@ -1923,13 +1914,31 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="126" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A11" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="10" t="s">
         <v>139</v>
       </c>
       <c r="B12" s="4">
@@ -1951,7 +1960,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="168" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="162" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>93</v>
       </c>
@@ -1974,8 +1983,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="112" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+    <row r="14" spans="1:7" ht="108" x14ac:dyDescent="0.15">
+      <c r="A14" s="10" t="s">
         <v>148</v>
       </c>
       <c r="B14" s="4">
@@ -1990,13 +1999,16 @@
       <c r="E14" s="5" t="s">
         <v>151</v>
       </c>
+      <c r="F14" s="14" t="s">
+        <v>183</v>
+      </c>
       <c r="G14" s="6" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="126.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>178</v>
+    <row r="15" spans="1:7" ht="123.75" x14ac:dyDescent="0.15">
+      <c r="A15" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="B15" s="4">
         <v>9256</v>
@@ -2010,22 +2022,61 @@
       <c r="E15" s="6" t="s">
         <v>31</v>
       </c>
+      <c r="F15" s="14" t="s">
+        <v>183</v>
+      </c>
       <c r="G15" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="11" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="B16" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="168" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="162" x14ac:dyDescent="0.15">
+      <c r="A18" s="10" t="s">
         <v>134</v>
       </c>
       <c r="B18" s="4">
@@ -2047,9 +2098,9 @@
         <v>138</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
-        <v>7</v>
+    <row r="19" spans="1:7" ht="409.5" x14ac:dyDescent="0.15">
+      <c r="A19" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="B19" s="4">
         <v>5041</v>
@@ -2070,77 +2121,100 @@
         <v>157</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
-        <v>174</v>
+    <row r="20" spans="1:7" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>176</v>
       </c>
       <c r="B20" s="4">
         <v>7051</v>
       </c>
-      <c r="C20" s="8"/>
+      <c r="C20" s="1" t="s">
+        <v>182</v>
+      </c>
       <c r="D20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="42" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>180</v>
+    </row>
+    <row r="21" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A21" s="11" t="s">
+        <v>1</v>
       </c>
       <c r="B21" s="4">
         <v>5517</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E21" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="G21" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G21" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="42" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
-        <v>9</v>
+    </row>
+    <row r="22" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B22" s="4">
         <v>5517</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="G22" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G22" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+    </row>
+    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A23" s="10" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="182" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+      <c r="B23" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="175.5" x14ac:dyDescent="0.15">
+      <c r="A24" s="10" t="s">
         <v>129</v>
       </c>
       <c r="B24" s="4">
@@ -2162,41 +2236,77 @@
         <v>133</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" s="11" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="70" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
+      <c r="B25" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A26" s="11" t="s">
         <v>171</v>
       </c>
       <c r="B26" s="4">
         <v>684</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="F26" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="G26" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="168" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="162" x14ac:dyDescent="0.15">
+      <c r="A28" s="10" t="s">
         <v>164</v>
       </c>
       <c r="B28" s="4">
@@ -2218,17 +2328,53 @@
         <v>168</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="140" x14ac:dyDescent="0.25">
+      <c r="B29" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A30" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="135" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>103</v>
       </c>
@@ -2244,12 +2390,15 @@
       <c r="E31" s="5" t="s">
         <v>96</v>
       </c>
+      <c r="F31" s="14" t="s">
+        <v>183</v>
+      </c>
       <c r="G31" s="6" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="364" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
+    <row r="32" spans="1:7" ht="351" x14ac:dyDescent="0.15">
+      <c r="A32" s="11" t="s">
         <v>173</v>
       </c>
       <c r="B32" s="4">
@@ -2271,8 +2420,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="98" x14ac:dyDescent="0.25">
-      <c r="A33" s="12" t="s">
+    <row r="33" spans="1:7" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A33" s="11" t="s">
         <v>49</v>
       </c>
       <c r="B33" s="4">
@@ -2285,7 +2434,7 @@
         <v>51</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>52</v>
@@ -2294,8 +2443,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="224" x14ac:dyDescent="0.25">
-      <c r="A34" s="12" t="s">
+    <row r="34" spans="1:7" ht="216" x14ac:dyDescent="0.15">
+      <c r="A34" s="11" t="s">
         <v>172</v>
       </c>
       <c r="B34" s="4">
@@ -2317,9 +2466,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="70" x14ac:dyDescent="0.25">
-      <c r="A35" s="12" t="s">
-        <v>175</v>
+    <row r="35" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A35" s="11" t="s">
+        <v>177</v>
       </c>
       <c r="B35" s="4">
         <v>3908</v>
@@ -2331,7 +2480,7 @@
         <v>62</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>63</v>
@@ -2340,7 +2489,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="42" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>87</v>
       </c>
@@ -2363,8 +2512,8 @@
         <v>92</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="154" x14ac:dyDescent="0.25">
-      <c r="A37" s="12" t="s">
+    <row r="37" spans="1:7" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="A37" s="11" t="s">
         <v>44</v>
       </c>
       <c r="B37" s="4">
@@ -2377,7 +2526,7 @@
         <v>46</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>47</v>
@@ -2386,9 +2535,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="336" x14ac:dyDescent="0.25">
-      <c r="A38" s="11" t="s">
-        <v>6</v>
+    <row r="38" spans="1:7" ht="324" x14ac:dyDescent="0.15">
+      <c r="A38" s="10" t="s">
+        <v>174</v>
       </c>
       <c r="B38" s="4">
         <v>1793</v>
@@ -2409,7 +2558,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="42" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>4</v>
       </c>
@@ -2432,9 +2581,9 @@
         <v>123</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="98" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>2</v>
+        <v>178</v>
       </c>
       <c r="B40" s="4">
         <v>3969</v>
@@ -2455,14 +2604,32 @@
         <v>102</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="14" t="s">
+    <row r="41" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A41" s="10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="12" t="s">
-        <v>176</v>
+      <c r="B41" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="G41" s="14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="405" x14ac:dyDescent="0.15">
+      <c r="A42" s="11" t="s">
+        <v>179</v>
       </c>
       <c r="B42" s="4">
         <v>10283</v>
@@ -2483,27 +2650,72 @@
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="12" t="s">
+      <c r="B43" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="G43" s="14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A44" s="11" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" ht="42" x14ac:dyDescent="0.25">
-      <c r="A45" s="11" t="s">
+      <c r="B44" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.15">
+      <c r="A45" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B45" s="14">
         <v>60081</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="G45" s="6" t="s">
+      <c r="D45" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="F45" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="G45" s="14" t="s">
         <v>146</v>
       </c>
     </row>

--- a/cirRNA/cirRNAInfo/static/table/Cancer_info.xlsx
+++ b/cirRNA/cirRNAInfo/static/table/Cancer_info.xlsx
@@ -1,35 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3648BA3-1C5E-42DE-BFB5-8AC72A6FF1D9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$46</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="199">
   <si>
     <t>disease</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>gastric cancer</t>
+  </si>
+  <si>
+    <t>prostate cancer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>hypopharyngeal squamous cell carcinoma</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>papillary thyroid carcinoma</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>radioresistant esophageal cancer cells</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -39,6 +49,10 @@
   </si>
   <si>
     <t>Primary hepatic carcinoma</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pancreatic cancer</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -366,6 +380,10 @@
   <si>
     <t xml:space="preserve"> 
 is_a hepatobiliary system cancer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>non-small cell lung cancer</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -754,6 +772,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">cutaneous squamous cell carcinoma </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>basal cell carcinoma</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -806,6 +828,10 @@
   </si>
   <si>
     <t>is_a skin carcinoma</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">laryngeal squamous cell cancer </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1176,6 +1202,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>esophageal squamous cell carcinoma</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>hepatocellular carcinoma</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1188,11 +1218,47 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Pancreatic cancer</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">cutaneous squamous cell carcinoma </t>
+    <t>Endometrial cancer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cholangiocarcinoma</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Triple negative breast cancer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Glioblastoma</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cervical carcinoma</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Colon cancer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cutaneous squamous cell carcinoma</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bladder urothelial carcinoma</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kidney clear cell carcinoma</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>arsenic poisoning; arsenite-induced skin oncogenesis</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage III gastric cancer</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1204,10 +1270,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>papillary thyroid carcinoma</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Prostate cancer</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1216,22 +1278,22 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>N/A</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>N/A</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>N/A</t>
+    <t>colorectal cancer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cutaneous squamous cell carcinoma</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gastric cancer</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1280,25 +1342,32 @@
       <family val="1"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color rgb="FF222244"/>
       <name val="Verdana"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1310,10 +1379,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1321,7 +1391,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1336,7 +1406,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1348,24 +1421,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1456,6 +1521,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1491,6 +1573,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1666,1057 +1765,818 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.25" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="14"/>
-    <col min="3" max="3" width="82.5" style="16" customWidth="1"/>
-    <col min="4" max="4" width="41" style="14" customWidth="1"/>
-    <col min="5" max="5" width="16.5" style="14" customWidth="1"/>
-    <col min="6" max="6" width="34.125" style="14" customWidth="1"/>
-    <col min="7" max="7" width="30.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="58.26953125" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="4"/>
+    <col min="3" max="3" width="82.453125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="41" style="6" customWidth="1"/>
+    <col min="5" max="5" width="16.453125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="34.08984375" style="6" customWidth="1"/>
+    <col min="7" max="7" width="30.453125" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="13" t="s">
+      <c r="B1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="C1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="189" x14ac:dyDescent="0.15">
+      <c r="E1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="196" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B2" s="4">
         <v>9119</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="283.5" x14ac:dyDescent="0.15">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="294" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B4" s="4">
         <v>2513</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="11" t="s">
-        <v>54</v>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="70" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="B5" s="4">
         <v>4007</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="11" t="s">
-        <v>55</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="70" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>58</v>
       </c>
       <c r="B6" s="4">
         <v>4007</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="108" x14ac:dyDescent="0.15">
-      <c r="A7" s="10" t="s">
-        <v>158</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="112" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>164</v>
       </c>
       <c r="B7" s="4">
         <v>4006</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="351" x14ac:dyDescent="0.15">
-      <c r="A8" s="11" t="s">
-        <v>81</v>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="364" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="B8" s="4">
         <v>1319</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="121.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="11" t="s">
-        <v>65</v>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="126" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <v>1612</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="175.5" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="182" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B10" s="4">
         <v>4362</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A11" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="121.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="10" t="s">
-        <v>139</v>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="126" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>145</v>
       </c>
       <c r="B12" s="4">
         <v>4947</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="162" x14ac:dyDescent="0.15">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="168" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B13" s="4">
         <v>4467</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="108" x14ac:dyDescent="0.15">
-      <c r="A14" s="10" t="s">
-        <v>148</v>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="112" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>154</v>
       </c>
       <c r="B14" s="4">
         <v>219</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="123.75" x14ac:dyDescent="0.15">
-      <c r="A15" s="11" t="s">
-        <v>28</v>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="126.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>196</v>
       </c>
       <c r="B15" s="4">
         <v>9256</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>183</v>
+        <v>34</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="162" x14ac:dyDescent="0.15">
-      <c r="A18" s="10" t="s">
-        <v>134</v>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="168" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>140</v>
       </c>
       <c r="B18" s="4">
         <v>1380</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="409.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="10" t="s">
-        <v>6</v>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="B19" s="4">
         <v>5041</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="33.75" x14ac:dyDescent="0.15">
-      <c r="A20" s="1" t="s">
-        <v>176</v>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>192</v>
       </c>
       <c r="B20" s="4">
         <v>7051</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>182</v>
-      </c>
+      <c r="C20" s="8"/>
       <c r="D20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>182</v>
+        <v>23</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="11" t="s">
-        <v>1</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="42" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>198</v>
       </c>
       <c r="B21" s="4">
         <v>5517</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="42" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="B22" s="4">
         <v>5517</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A23" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="G23" s="14" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="175.5" x14ac:dyDescent="0.15">
-      <c r="A24" s="10" t="s">
-        <v>129</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="182" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>135</v>
       </c>
       <c r="B24" s="4">
         <v>3068</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="F25" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="G25" s="14" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="11" t="s">
-        <v>171</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="70" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>178</v>
       </c>
       <c r="B26" s="4">
         <v>684</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="F27" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="G27" s="14" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="162" x14ac:dyDescent="0.15">
-      <c r="A28" s="10" t="s">
-        <v>164</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="168" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>170</v>
       </c>
       <c r="B28" s="4">
         <v>4467</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A29" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="F29" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="G29" s="14" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A30" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="F30" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="G30" s="14" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="135" x14ac:dyDescent="0.15">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="140" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B31" s="4">
         <v>1240</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="F31" s="14" t="s">
-        <v>183</v>
+        <v>100</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="351" x14ac:dyDescent="0.15">
-      <c r="A32" s="11" t="s">
-        <v>173</v>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="364" x14ac:dyDescent="0.25">
+      <c r="A32" s="12" t="s">
+        <v>180</v>
       </c>
       <c r="B32" s="4">
         <v>3571</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A33" s="11" t="s">
-        <v>49</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="98" x14ac:dyDescent="0.25">
+      <c r="A33" s="12" t="s">
+        <v>52</v>
       </c>
       <c r="B33" s="4">
         <v>3910</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="216" x14ac:dyDescent="0.15">
-      <c r="A34" s="11" t="s">
-        <v>172</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="224" x14ac:dyDescent="0.25">
+      <c r="A34" s="12" t="s">
+        <v>179</v>
       </c>
       <c r="B34" s="4">
         <v>1324</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A35" s="11" t="s">
-        <v>177</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="70" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="s">
+        <v>193</v>
       </c>
       <c r="B35" s="4">
         <v>3908</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="42" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B36" s="4">
         <v>50866</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="148.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="11" t="s">
-        <v>44</v>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="154" x14ac:dyDescent="0.25">
+      <c r="A37" s="12" t="s">
+        <v>47</v>
       </c>
       <c r="B37" s="4">
         <v>3347</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="324" x14ac:dyDescent="0.15">
-      <c r="A38" s="10" t="s">
-        <v>174</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="336" x14ac:dyDescent="0.25">
+      <c r="A38" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="B38" s="4">
         <v>1793</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="42" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B39" s="4">
         <v>3498</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="94.5" x14ac:dyDescent="0.15">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="98" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>178</v>
+        <v>4</v>
       </c>
       <c r="B40" s="4">
         <v>3969</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D40" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E40" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="E40" s="5" t="s">
-        <v>96</v>
-      </c>
       <c r="F40" s="6" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A41" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B41" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="D41" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="E41" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="F41" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="G41" s="14" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="405" x14ac:dyDescent="0.15">
-      <c r="A42" s="11" t="s">
-        <v>179</v>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="12" t="s">
+        <v>194</v>
       </c>
       <c r="B42" s="4">
         <v>10283</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D42" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E42" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E42" s="5" t="s">
-        <v>68</v>
-      </c>
       <c r="F42" s="5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B43" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="C43" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="E43" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="F43" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="G43" s="14" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A44" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="E44" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="F44" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="G44" s="12" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.15">
-      <c r="A45" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="B45" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="12" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="42" x14ac:dyDescent="0.25">
+      <c r="A45" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B45" s="4">
         <v>60081</v>
       </c>
-      <c r="C45" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D45" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="E45" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="F45" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="G45" s="14" t="s">
-        <v>146</v>
+      <c r="C45" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -2727,4 +2587,258 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:A47"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="58.26953125" style="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="11" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="11" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="11" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="14" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="14" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="14" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/cirRNA/cirRNAInfo/static/table/Cancer_info.xlsx
+++ b/cirRNA/cirRNAInfo/static/table/Cancer_info.xlsx
@@ -1,45 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3648BA3-1C5E-42DE-BFB5-8AC72A6FF1D9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$45</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="184">
   <si>
     <t>disease</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>gastric cancer</t>
-  </si>
-  <si>
-    <t>prostate cancer</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>hypopharyngeal squamous cell carcinoma</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>papillary thyroid carcinoma</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>radioresistant esophageal cancer cells</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -49,10 +39,6 @@
   </si>
   <si>
     <t>Primary hepatic carcinoma</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pancreatic cancer</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -380,10 +366,6 @@
   <si>
     <t xml:space="preserve"> 
 is_a hepatobiliary system cancer</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>non-small cell lung cancer</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -772,10 +754,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">cutaneous squamous cell carcinoma </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>basal cell carcinoma</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -828,10 +806,6 @@
   </si>
   <si>
     <t>is_a skin carcinoma</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">laryngeal squamous cell cancer </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1202,10 +1176,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>esophageal squamous cell carcinoma</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>hepatocellular carcinoma</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1218,19 +1188,27 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Endometrial cancer</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cholangiocarcinoma</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Triple negative breast cancer</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Glioblastoma</t>
+    <t>Pancreatic cancer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">cutaneous squamous cell carcinoma </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Esophageal squamous cell carcinoma</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Non-small cell lung cancer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>papillary thyroid carcinoma</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prostate cancer</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1238,62 +1216,22 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Colon cancer</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cutaneous squamous cell carcinoma</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bladder urothelial carcinoma</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kidney clear cell carcinoma</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>arsenic poisoning; arsenite-induced skin oncogenesis</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>stage III gastric cancer</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Esophageal squamous cell carcinoma</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Non-small cell lung cancer</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prostate cancer</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cervical carcinoma</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>colorectal cancer</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cutaneous squamous cell carcinoma</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gastric cancer</t>
+    <t>N/A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1342,32 +1280,25 @@
       <family val="1"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color rgb="FF222244"/>
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1379,11 +1310,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1391,7 +1321,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1406,10 +1336,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1421,16 +1348,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1521,23 +1456,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1573,23 +1491,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1765,818 +1666,1057 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="58.26953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="4"/>
-    <col min="3" max="3" width="82.453125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="41" style="6" customWidth="1"/>
-    <col min="5" max="5" width="16.453125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="34.08984375" style="6" customWidth="1"/>
-    <col min="7" max="7" width="30.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="58.25" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="14"/>
+    <col min="3" max="3" width="82.5" style="16" customWidth="1"/>
+    <col min="4" max="4" width="41" style="14" customWidth="1"/>
+    <col min="5" max="5" width="16.5" style="14" customWidth="1"/>
+    <col min="6" max="6" width="34.125" style="14" customWidth="1"/>
+    <col min="7" max="7" width="30.5" style="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="F1" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="196" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" ht="189" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B2" s="4">
         <v>9119</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D2" s="5" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="283.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="294" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="B4" s="4">
         <v>2513</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="70" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>57</v>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="11" t="s">
+        <v>54</v>
       </c>
       <c r="B5" s="4">
         <v>4007</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="70" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>58</v>
+    </row>
+    <row r="6" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="B6" s="4">
         <v>4007</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="112" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>164</v>
+    </row>
+    <row r="7" spans="1:7" ht="108" x14ac:dyDescent="0.15">
+      <c r="A7" s="10" t="s">
+        <v>158</v>
       </c>
       <c r="B7" s="4">
         <v>4006</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="364" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>85</v>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="351" x14ac:dyDescent="0.15">
+      <c r="A8" s="11" t="s">
+        <v>81</v>
       </c>
       <c r="B8" s="4">
         <v>1319</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="126" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>69</v>
+    </row>
+    <row r="9" spans="1:7" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="11" t="s">
+        <v>65</v>
       </c>
       <c r="B9" s="4">
         <v>1612</v>
       </c>
       <c r="C9" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="182" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:7" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B10" s="4">
         <v>4362</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="126" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>145</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A11" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="10" t="s">
+        <v>139</v>
       </c>
       <c r="B12" s="4">
         <v>4947</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="168" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="162" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B13" s="4">
         <v>4467</v>
       </c>
       <c r="C13" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="112" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>154</v>
+    </row>
+    <row r="14" spans="1:7" ht="108" x14ac:dyDescent="0.15">
+      <c r="A14" s="10" t="s">
+        <v>148</v>
       </c>
       <c r="B14" s="4">
         <v>219</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>157</v>
+        <v>151</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>183</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="126.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>196</v>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="123.75" x14ac:dyDescent="0.15">
+      <c r="A15" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="B15" s="4">
         <v>9256</v>
       </c>
       <c r="C15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="168" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>140</v>
+        <v>175</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="162" x14ac:dyDescent="0.15">
+      <c r="A18" s="10" t="s">
+        <v>134</v>
       </c>
       <c r="B18" s="4">
         <v>1380</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
-        <v>9</v>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="409.5" x14ac:dyDescent="0.15">
+      <c r="A19" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="B19" s="4">
         <v>5041</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
-        <v>192</v>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>176</v>
       </c>
       <c r="B20" s="4">
         <v>7051</v>
       </c>
-      <c r="C20" s="8"/>
+      <c r="C20" s="1" t="s">
+        <v>182</v>
+      </c>
       <c r="D20" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>182</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="42" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>198</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A21" s="11" t="s">
+        <v>1</v>
       </c>
       <c r="B21" s="4">
         <v>5517</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="G21" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="42" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
-        <v>11</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B22" s="4">
         <v>5517</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="G22" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="182" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
-        <v>135</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A23" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="175.5" x14ac:dyDescent="0.15">
+      <c r="A24" s="10" t="s">
+        <v>129</v>
       </c>
       <c r="B24" s="4">
         <v>3068</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="70" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
-        <v>178</v>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A26" s="11" t="s">
+        <v>171</v>
       </c>
       <c r="B26" s="4">
         <v>684</v>
       </c>
       <c r="C26" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="F26" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E26" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="168" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
-        <v>170</v>
+        <v>2</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="162" x14ac:dyDescent="0.15">
+      <c r="A28" s="10" t="s">
+        <v>164</v>
       </c>
       <c r="B28" s="4">
         <v>4467</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="E28" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="G28" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="F28" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="140" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A30" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="135" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B31" s="4">
         <v>1240</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>183</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="364" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
-        <v>180</v>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="351" x14ac:dyDescent="0.15">
+      <c r="A32" s="11" t="s">
+        <v>173</v>
       </c>
       <c r="B32" s="4">
         <v>3571</v>
       </c>
       <c r="C32" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F32" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="G32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E32" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="98" x14ac:dyDescent="0.25">
-      <c r="A33" s="12" t="s">
-        <v>52</v>
+    </row>
+    <row r="33" spans="1:7" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A33" s="11" t="s">
+        <v>49</v>
       </c>
       <c r="B33" s="4">
         <v>3910</v>
       </c>
       <c r="C33" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G33" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D33" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="224" x14ac:dyDescent="0.25">
-      <c r="A34" s="12" t="s">
-        <v>179</v>
+    </row>
+    <row r="34" spans="1:7" ht="216" x14ac:dyDescent="0.15">
+      <c r="A34" s="11" t="s">
+        <v>172</v>
       </c>
       <c r="B34" s="4">
         <v>1324</v>
       </c>
       <c r="C34" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F34" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="G34" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E34" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="70" x14ac:dyDescent="0.25">
-      <c r="A35" s="12" t="s">
-        <v>193</v>
+    </row>
+    <row r="35" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A35" s="11" t="s">
+        <v>177</v>
       </c>
       <c r="B35" s="4">
         <v>3908</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="42" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B36" s="4">
         <v>50866</v>
       </c>
       <c r="C36" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G36" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D36" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="154" x14ac:dyDescent="0.25">
-      <c r="A37" s="12" t="s">
-        <v>47</v>
+    </row>
+    <row r="37" spans="1:7" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="A37" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="B37" s="4">
         <v>3347</v>
       </c>
       <c r="C37" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G37" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D37" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="336" x14ac:dyDescent="0.25">
-      <c r="A38" s="11" t="s">
-        <v>8</v>
+    </row>
+    <row r="38" spans="1:7" ht="324" x14ac:dyDescent="0.15">
+      <c r="A38" s="10" t="s">
+        <v>174</v>
       </c>
       <c r="B38" s="4">
         <v>1793</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="42" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B39" s="4">
         <v>3498</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="98" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>4</v>
+        <v>178</v>
       </c>
       <c r="B40" s="4">
         <v>3969</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="12" t="s">
-        <v>194</v>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A41" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="G41" s="14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="405" x14ac:dyDescent="0.15">
+      <c r="A42" s="11" t="s">
+        <v>179</v>
       </c>
       <c r="B42" s="4">
         <v>10283</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="12" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="42" x14ac:dyDescent="0.25">
-      <c r="A45" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="B45" s="4">
+        <v>3</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="G43" s="14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A44" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.15">
+      <c r="A45" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="B45" s="14">
         <v>60081</v>
       </c>
-      <c r="C45" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>152</v>
+      <c r="C45" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="F45" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="G45" s="14" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -2587,258 +2727,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A47"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="58.26953125" style="10" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="14" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="11" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="11" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="11" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="11" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="11" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="14" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="14" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="14" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="13" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="13" t="s">
-        <v>191</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>